--- a/weekly_online_paper_metrices/output/2023-06-11.xlsx
+++ b/weekly_online_paper_metrices/output/2023-06-11.xlsx
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="G56">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="H56">
         <v>0</v>
